--- a/ciudades.xlsx
+++ b/ciudades.xlsx
@@ -42,18 +42,9 @@
     <t>Armenia</t>
   </si>
   <si>
-    <t>Quindío</t>
-  </si>
-  <si>
     <t>Barranquilla</t>
   </si>
   <si>
-    <t>Atlántico</t>
-  </si>
-  <si>
-    <t>Bogotá D.C.</t>
-  </si>
-  <si>
     <t>Cundinamarca</t>
   </si>
   <si>
@@ -66,30 +57,18 @@
     <t>Cartagena</t>
   </si>
   <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
-    <t>Cúcuta</t>
-  </si>
-  <si>
     <t>Norte de Santander</t>
   </si>
   <si>
     <t>Caldas</t>
   </si>
   <si>
-    <t>Medellín</t>
-  </si>
-  <si>
     <t>Antioquia</t>
   </si>
   <si>
     <t>Monteria</t>
   </si>
   <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
     <t>Palmira</t>
   </si>
   <si>
@@ -105,19 +84,40 @@
     <t>Pasto</t>
   </si>
   <si>
-    <t>Nariño</t>
-  </si>
-  <si>
     <t>Soledad</t>
   </si>
   <si>
-    <t>Tulúa</t>
-  </si>
-  <si>
     <t>Valledupar</t>
   </si>
   <si>
     <t>Cesar</t>
+  </si>
+  <si>
+    <t>Atlantico</t>
+  </si>
+  <si>
+    <t>Bogota D.C.</t>
+  </si>
+  <si>
+    <t>Narino</t>
+  </si>
+  <si>
+    <t>Quindio</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Cucuta</t>
+  </si>
+  <si>
+    <t>Tulua</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -494,7 +494,7 @@
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>4.5338889</v>
@@ -508,13 +508,13 @@
         <v>8001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>10.963888900000001</v>
@@ -528,13 +528,13 @@
         <v>11001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>4.5999999999999996</v>
@@ -548,13 +548,13 @@
         <v>68001</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>7.1297221999999998</v>
@@ -568,13 +568,13 @@
         <v>13001</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>10.399722199999999</v>
@@ -588,13 +588,13 @@
         <v>54001</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>7.8833333000000003</v>
@@ -608,13 +608,13 @@
         <v>5129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>6.0909950000000004</v>
@@ -628,13 +628,13 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>6.2913889000000003</v>
@@ -648,13 +648,13 @@
         <v>23001</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>8.7575000000000003</v>
@@ -668,13 +668,13 @@
         <v>76520</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>3.5394443999999998</v>
@@ -688,13 +688,13 @@
         <v>66001</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>4.8133333</v>
@@ -708,13 +708,13 @@
         <v>52001</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>1.2146707368165299</v>
@@ -728,13 +728,13 @@
         <v>8758</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>10.917222199999999</v>
@@ -748,13 +748,13 @@
         <v>76834</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>4.0866667000000003</v>
@@ -768,13 +768,13 @@
         <v>20001</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>10.476944400000001</v>

--- a/ciudades.xlsx
+++ b/ciudades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Cod Mun</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Tulua</t>
+  </si>
+  <si>
+    <t>Manizales</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -605,22 +608,22 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>5129</v>
+        <v>17001</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="3">
-        <v>6.0909950000000004</v>
+        <v>5.07</v>
       </c>
       <c r="F8">
-        <v>-75.635568000000006</v>
+        <v>-75.520555599999994</v>
       </c>
     </row>
     <row r="9" spans="1:6">
